--- a/JVM.xlsx
+++ b/JVM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -673,13 +673,133 @@
     <t>局部变量表</t>
   </si>
   <si>
-    <t>局部变量表是一组变量值存储空间，用于存放方法参数和方法内部定义的局部变量</t>
+    <r>
+      <t>局部变量表是一组</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变量值存储空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存放方法参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法内部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定义的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>局部变量</t>
+    </r>
   </si>
   <si>
     <t>局部变量表的容量以变量槽为单位(variable slot)</t>
   </si>
   <si>
-    <t>每个Slot都应该能存放一个boolean,byte,char,short,int,float,reference,returnAddress类型的数据</t>
+    <r>
+      <t>每个Slot都应该能存放一个boolean,byte,char,short,int,float,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returnAddress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类型的数据</t>
+    </r>
   </si>
   <si>
     <t>局部变量表中的reference</t>
@@ -688,16 +808,160 @@
     <t>引用做到以下两点</t>
   </si>
   <si>
-    <t>1，从此引用中直接或间接地查找到对象在JAVA堆中的数据存放的起始地址索引</t>
-  </si>
-  <si>
-    <t>2，此引用中直接或间接的查找到对象所属的数据类型在方法区中的存储的类型信息</t>
+    <r>
+      <t>1，从此引用中直接或间接地</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查找</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在JAVA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>堆中的数据存放的起始地址索引</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2，此引用中直接或间接的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查找</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象所属的数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法区中的存储的类型信息</t>
+    </r>
   </si>
   <si>
     <t>操作数栈</t>
   </si>
   <si>
-    <t>操作数栈可理解为java虚拟机栈中的一个用于计算的临时数据存储区，后入先出栈的规则</t>
+    <r>
+      <t>操作数栈可理解为java虚拟机栈中的一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于计算的临时数据存储区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后入先出栈的规则</t>
+    </r>
   </si>
   <si>
     <t>每一个元素可以是任意的Java数据类型</t>
@@ -721,13 +985,93 @@
     <t>持有这个引用是为了支持方法调用过程中的动态链接</t>
   </si>
   <si>
-    <t>class文件的常量池中存有大量的符号引用，字节码中的方法调用指令就以常量池中指向方法的符号引用作为参数</t>
-  </si>
-  <si>
-    <t>引用一部分会在类加载阶段或者第一次使用的时候就转化为直接引用，这种引用成为静态引用</t>
-  </si>
-  <si>
-    <t>另一部分将在每一次运行期间转化为直接引用，这部分成为动态链接</t>
+    <r>
+      <t>class文件的常量池中存有大量的符号引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字节码中的方法调用指令就以常量池中指向方法的符号引用作为参数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>引用一部分会在类加载阶段或者第一次使用的时候就转化为直接引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这种引用成为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>静态引用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>另一部分将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在每一次运行期间转化为直接引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这部分成为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态链接</t>
+    </r>
   </si>
   <si>
     <t>方法返回地址</t>
@@ -736,37 +1080,232 @@
     <t>当一个方法开始执行后，只有两种方式可以退出这个方法</t>
   </si>
   <si>
-    <t>1，执行引擎遇到任意一个方法返回的字节码指令</t>
-  </si>
-  <si>
-    <t>2，方法执行过程中异常退出</t>
+    <r>
+      <t>1，执行引擎遇到任意一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法返回的字节码指令</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2，方法执行过程中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>异常退出</t>
+    </r>
   </si>
   <si>
     <t>无论采用何种退出方式，在方法退出之后，都需要返回到方法被调用的位置，程序才能继续执行，</t>
   </si>
   <si>
-    <t>方法返回时可能需要在栈帧中保存一些信息，用来帮助恢复它的上层方法的执行状态。</t>
-  </si>
-  <si>
-    <t>正常退出时，调用者的PC计数器的值可以作为返回地址，栈帧中会保存这个计数器的值</t>
-  </si>
-  <si>
-    <t>异常退出时，返回地址是要通过异常处理器表来确定，栈帧不会保存这部分信息</t>
+    <r>
+      <t>方法返回时可能需要在栈帧中保存一些信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用来帮助</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恢复它的上层方法的执行状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>正常退出时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，调用者的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PC计数器的值可以作为返回地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>栈帧中会保存这个计数器的值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>异常退出时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，返回地址是要通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>异常处理器表来确定，栈帧不会保存这部分信息</t>
+    </r>
   </si>
   <si>
     <t>方法退出的过程</t>
   </si>
   <si>
-    <t>方法退出的过程实际上就等于把当前栈帧出栈，</t>
+    <r>
+      <t>方法退出的过程实际上就等于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>把当前栈帧出栈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
   </si>
   <si>
     <t>恢复上层方法的局部变量表和操作数栈</t>
   </si>
   <si>
-    <t>把返回值压入调用者栈帧的操作数栈中，</t>
-  </si>
-  <si>
-    <t>调整PC计数器的值以指向方法调用指令后面的一条指令</t>
+    <r>
+      <t>把</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>返回值压入调用者栈帧的操作数栈中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>调整PC计数器的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指向方法调用指令后面的一条指令</t>
+    </r>
   </si>
   <si>
     <t>方法调用</t>
@@ -796,8 +1335,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -817,39 +1356,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,7 +1380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,9 +1394,84 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,45 +1485,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,22 +1495,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,7 +1509,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,13 +1653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,37 +1671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,115 +1689,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,30 +1700,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1207,22 +1722,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,8 +1730,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,6 +1768,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1261,16 +1785,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1279,137 +1818,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1419,11 +1958,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2256,8 +2794,8 @@
   <sheetPr/>
   <dimension ref="A1:N445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A418" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="E435" sqref="E435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3270,19 +3808,16 @@
       </c>
     </row>
     <row r="289" customFormat="1" spans="1:2">
-      <c r="A289" s="7"/>
+      <c r="A289" s="3"/>
       <c r="B289" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="290" customFormat="1" spans="1:2">
-      <c r="A290" s="7"/>
+      <c r="A290" s="3"/>
       <c r="B290" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="291" customFormat="1" spans="1:1">
-      <c r="A291" s="7"/>
     </row>
     <row r="292" customFormat="1" spans="1:2">
       <c r="A292" s="3" t="s">
@@ -3293,19 +3828,19 @@
       </c>
     </row>
     <row r="293" customFormat="1" spans="1:2">
-      <c r="A293" s="7"/>
+      <c r="A293" s="3"/>
       <c r="B293" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="294" customFormat="1" spans="1:2">
-      <c r="A294" s="7"/>
+      <c r="A294" s="3"/>
       <c r="B294" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="295" customFormat="1" spans="1:3">
-      <c r="A295" s="7"/>
+      <c r="A295" s="3"/>
       <c r="B295" t="s">
         <v>149</v>
       </c>
@@ -3314,31 +3849,28 @@
       </c>
     </row>
     <row r="296" customFormat="1" spans="1:2">
-      <c r="A296" s="7"/>
+      <c r="A296" s="3"/>
       <c r="B296" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="297" customFormat="1" spans="1:3">
-      <c r="A297" s="7"/>
+      <c r="A297" s="3"/>
       <c r="C297" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="298" customFormat="1" spans="1:3">
-      <c r="A298" s="7"/>
+      <c r="A298" s="3"/>
       <c r="C298" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="299" customFormat="1" spans="1:3">
-      <c r="A299" s="7"/>
+      <c r="A299" s="3"/>
       <c r="C299" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="300" customFormat="1" spans="1:1">
-      <c r="A300" s="7"/>
     </row>
     <row r="301" customFormat="1" spans="1:2">
       <c r="A301" s="3" t="s">
@@ -3349,13 +3881,10 @@
       </c>
     </row>
     <row r="302" customFormat="1" spans="1:2">
-      <c r="A302" s="7"/>
+      <c r="A302" s="3"/>
       <c r="B302" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="303" customFormat="1" spans="1:1">
-      <c r="A303" s="7"/>
     </row>
     <row r="304" customFormat="1" spans="1:1">
       <c r="A304" s="3" t="s">
@@ -3363,7 +3892,7 @@
       </c>
     </row>
     <row r="305" customFormat="1" spans="1:2">
-      <c r="A305" s="7"/>
+      <c r="A305" s="3"/>
       <c r="B305" t="s">
         <v>159</v>
       </c>
@@ -3374,37 +3903,34 @@
       </c>
     </row>
     <row r="307" customFormat="1" spans="1:2">
-      <c r="A307" s="7"/>
+      <c r="A307" s="3"/>
       <c r="B307" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="308" customFormat="1" spans="1:2">
-      <c r="A308" s="7"/>
+      <c r="A308" s="3"/>
       <c r="B308" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="309" customFormat="1" spans="1:2">
-      <c r="A309" s="7"/>
+      <c r="A309" s="3"/>
       <c r="B309" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="310" customFormat="1" spans="1:2">
-      <c r="A310" s="7"/>
+      <c r="A310" s="3"/>
       <c r="B310" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="311" customFormat="1" spans="1:2">
-      <c r="A311" s="7"/>
+      <c r="A311" s="3"/>
       <c r="B311" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="312" customFormat="1" spans="1:1">
-      <c r="A312" s="7"/>
     </row>
     <row r="313" customFormat="1" spans="1:1">
       <c r="A313" s="3" t="s">
@@ -3412,40 +3938,34 @@
       </c>
     </row>
     <row r="314" customFormat="1" spans="1:2">
-      <c r="A314" s="7"/>
+      <c r="A314" s="3"/>
       <c r="B314" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="315" customFormat="1" spans="1:2">
-      <c r="A315" s="7"/>
+      <c r="A315" s="3"/>
       <c r="B315" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="316" customFormat="1" spans="1:1">
-      <c r="A316" s="7"/>
-    </row>
     <row r="317" customFormat="1" spans="1:2">
-      <c r="A317" s="7"/>
+      <c r="A317" s="3"/>
       <c r="B317" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="318" customFormat="1" spans="1:2">
-      <c r="A318" s="7"/>
+      <c r="A318" s="3"/>
       <c r="B318" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="319" customFormat="1" spans="1:2">
-      <c r="A319" s="7"/>
+      <c r="A319" s="3"/>
       <c r="B319" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="320" customFormat="1" spans="1:1">
-      <c r="A320" s="7"/>
     </row>
     <row r="321" customFormat="1" spans="1:1">
       <c r="A321" s="3" t="s">
@@ -3453,13 +3973,10 @@
       </c>
     </row>
     <row r="322" customFormat="1" spans="1:2">
-      <c r="A322" s="7"/>
+      <c r="A322" s="3"/>
       <c r="B322" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="323" customFormat="1" spans="1:1">
-      <c r="A323" s="7"/>
     </row>
     <row r="324" customFormat="1" spans="1:2">
       <c r="A324" s="3" t="s">
@@ -3470,25 +3987,22 @@
       </c>
     </row>
     <row r="325" customFormat="1" spans="1:2">
-      <c r="A325" s="7"/>
+      <c r="A325" s="3"/>
       <c r="B325" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="326" customFormat="1" spans="1:2">
-      <c r="A326" s="7"/>
+      <c r="A326" s="3"/>
       <c r="B326" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="327" customFormat="1" spans="1:2">
-      <c r="A327" s="7"/>
+      <c r="A327" s="3"/>
       <c r="B327" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="328" customFormat="1" spans="1:1">
-      <c r="A328" s="7"/>
     </row>
     <row r="329" customFormat="1" spans="1:2">
       <c r="A329" s="3" t="s">
@@ -3499,31 +4013,28 @@
       </c>
     </row>
     <row r="330" customFormat="1" spans="1:2">
-      <c r="A330" s="7"/>
+      <c r="A330" s="3"/>
       <c r="B330" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="331" customFormat="1" spans="1:2">
-      <c r="A331" s="7"/>
+      <c r="A331" s="3"/>
       <c r="B331" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="332" customFormat="1" spans="1:2">
-      <c r="A332" s="7"/>
+      <c r="A332" s="3"/>
       <c r="B332" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="333" customFormat="1" spans="1:2">
-      <c r="A333" s="7"/>
+      <c r="A333" s="3"/>
       <c r="B333" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="334" customFormat="1" spans="1:1">
-      <c r="A334" s="7"/>
     </row>
     <row r="335" customFormat="1" spans="1:2">
       <c r="A335" s="3" t="s">
@@ -3534,13 +4045,10 @@
       </c>
     </row>
     <row r="336" customFormat="1" spans="1:2">
-      <c r="A336" s="7"/>
+      <c r="A336" s="3"/>
       <c r="B336" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="337" customFormat="1" spans="1:1">
-      <c r="A337" s="7"/>
     </row>
     <row r="338" customFormat="1" spans="1:2">
       <c r="A338" s="3" t="s">
@@ -3551,25 +4059,22 @@
       </c>
     </row>
     <row r="339" customFormat="1" spans="1:2">
-      <c r="A339" s="7"/>
+      <c r="A339" s="3"/>
       <c r="B339" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="340" customFormat="1" spans="1:2">
-      <c r="A340" s="7"/>
+      <c r="A340" s="3"/>
       <c r="B340" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="341" customFormat="1" spans="1:2">
-      <c r="A341" s="7"/>
+      <c r="A341" s="3"/>
       <c r="B341" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="342" customFormat="1" spans="1:1">
-      <c r="A342" s="7"/>
     </row>
     <row r="343" customFormat="1" spans="1:2">
       <c r="A343" s="3" t="s">
@@ -3579,12 +4084,6 @@
         <v>193</v>
       </c>
     </row>
-    <row r="344" customFormat="1" spans="1:1">
-      <c r="A344" s="7"/>
-    </row>
-    <row r="345" customFormat="1" spans="1:1">
-      <c r="A345" s="7"/>
-    </row>
     <row r="346" customFormat="1" spans="1:2">
       <c r="A346" s="3" t="s">
         <v>194</v>
@@ -3594,19 +4093,16 @@
       </c>
     </row>
     <row r="347" customFormat="1" spans="1:2">
-      <c r="A347" s="7"/>
+      <c r="A347" s="3"/>
       <c r="B347" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="348" customFormat="1" spans="1:2">
-      <c r="A348" s="7"/>
+      <c r="A348" s="3"/>
       <c r="B348" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="349" customFormat="1" spans="1:1">
-      <c r="A349" s="7"/>
     </row>
     <row r="350" customFormat="1" spans="1:1">
       <c r="A350" s="3" t="s">
@@ -3614,25 +4110,22 @@
       </c>
     </row>
     <row r="351" customFormat="1" spans="1:2">
-      <c r="A351" s="7"/>
+      <c r="A351" s="3"/>
       <c r="B351" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="352" customFormat="1" spans="1:2">
-      <c r="A352" s="7"/>
+      <c r="A352" s="3"/>
       <c r="B352" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="353" customFormat="1" spans="1:2">
-      <c r="A353" s="7"/>
+      <c r="A353" s="3"/>
       <c r="B353" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="354" customFormat="1" spans="1:1">
-      <c r="A354" s="7"/>
     </row>
     <row r="355" customFormat="1" spans="1:1">
       <c r="A355" s="3" t="s">
@@ -3640,94 +4133,46 @@
       </c>
     </row>
     <row r="356" customFormat="1" spans="1:2">
-      <c r="A356" s="7"/>
+      <c r="A356" s="3"/>
       <c r="B356" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="357" customFormat="1" spans="1:2">
-      <c r="A357" s="7"/>
+      <c r="A357" s="3"/>
       <c r="B357" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="358" customFormat="1" spans="1:2">
-      <c r="A358" s="7"/>
+      <c r="A358" s="3"/>
       <c r="B358" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="359" customFormat="1" spans="1:2">
-      <c r="A359" s="7"/>
+      <c r="A359" s="3"/>
       <c r="B359" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="360" customFormat="1" spans="1:1">
-      <c r="A360" s="7"/>
-    </row>
     <row r="361" customFormat="1" spans="1:2">
-      <c r="A361" s="7"/>
+      <c r="A361" s="3"/>
       <c r="B361" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="362" customFormat="1" spans="1:2">
-      <c r="A362" s="7"/>
+      <c r="A362" s="3"/>
       <c r="B362" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="363" customFormat="1" spans="1:2">
-      <c r="A363" s="7"/>
+      <c r="A363" s="3"/>
       <c r="B363" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="364" customFormat="1" spans="1:1">
-      <c r="A364" s="7"/>
-    </row>
-    <row r="365" customFormat="1" spans="1:1">
-      <c r="A365" s="7"/>
-    </row>
-    <row r="366" customFormat="1" spans="1:1">
-      <c r="A366" s="7"/>
-    </row>
-    <row r="367" customFormat="1" spans="1:1">
-      <c r="A367" s="7"/>
-    </row>
-    <row r="368" customFormat="1" spans="1:1">
-      <c r="A368" s="7"/>
-    </row>
-    <row r="369" customFormat="1" spans="1:1">
-      <c r="A369" s="7"/>
-    </row>
-    <row r="370" customFormat="1" spans="1:1">
-      <c r="A370" s="7"/>
-    </row>
-    <row r="371" customFormat="1" spans="1:1">
-      <c r="A371" s="7"/>
-    </row>
-    <row r="372" customFormat="1" spans="1:1">
-      <c r="A372" s="7"/>
-    </row>
-    <row r="373" customFormat="1" spans="1:1">
-      <c r="A373" s="7"/>
-    </row>
-    <row r="374" customFormat="1" spans="1:1">
-      <c r="A374" s="7"/>
-    </row>
-    <row r="375" customFormat="1" spans="1:1">
-      <c r="A375" s="7"/>
-    </row>
-    <row r="376" customFormat="1" spans="1:1">
-      <c r="A376" s="7"/>
-    </row>
-    <row r="377" customFormat="1" spans="1:1">
-      <c r="A377" s="7"/>
-    </row>
-    <row r="378" customFormat="1" spans="1:1">
-      <c r="A378" s="7"/>
     </row>
     <row r="379" s="1" customFormat="1" spans="1:1">
       <c r="A379" s="5"/>
@@ -3740,113 +4185,83 @@
         <v>210</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
-      <c r="A382" s="7"/>
+    <row r="382" spans="2:2">
       <c r="B382" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
-      <c r="A383" s="7"/>
+    <row r="383" spans="2:2">
       <c r="B383" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
-      <c r="A384" s="7"/>
+    <row r="384" spans="2:2">
       <c r="B384" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
-      <c r="A385" s="7"/>
+    <row r="385" spans="2:2">
       <c r="B385" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="386" customFormat="1" spans="1:1">
-      <c r="A386" s="7"/>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
-      <c r="A388" s="7"/>
+    <row r="388" spans="2:2">
       <c r="B388" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
-      <c r="A389" s="7"/>
+    <row r="389" spans="2:2">
       <c r="B389" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="390" customFormat="1" spans="1:1">
-      <c r="A390" s="7"/>
-    </row>
-    <row r="391" customFormat="1" spans="1:1">
-      <c r="A391" s="7"/>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
-      <c r="A393" s="7"/>
-      <c r="B393" t="s">
+    <row r="393" spans="2:2">
+      <c r="B393" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
-      <c r="A394" s="7"/>
+    <row r="394" spans="2:2">
       <c r="B394" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
-      <c r="A395" s="7"/>
-      <c r="B395" t="s">
+    <row r="395" spans="2:2">
+      <c r="B395" s="4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="396" customFormat="1" spans="1:1">
-      <c r="A396" s="7"/>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
-      <c r="A398" s="7"/>
+    <row r="398" spans="2:2">
       <c r="B398" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
-      <c r="A399" s="7"/>
-      <c r="B399" t="s">
+    <row r="399" spans="2:2">
+      <c r="B399" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
-      <c r="A400" s="7"/>
-      <c r="B400" t="s">
+    <row r="400" spans="2:2">
+      <c r="B400" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="401" customFormat="1" spans="1:1">
-      <c r="A401" s="7"/>
-    </row>
-    <row r="402" customFormat="1" spans="1:1">
-      <c r="A402" s="7"/>
-    </row>
     <row r="403" spans="1:14">
-      <c r="A403" s="8" t="s">
+      <c r="A403" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B403" s="2"/>
@@ -3864,8 +4279,8 @@
       <c r="N403" s="2"/>
     </row>
     <row r="404" spans="1:14">
-      <c r="A404" s="9"/>
-      <c r="B404" s="2" t="s">
+      <c r="A404" s="7"/>
+      <c r="B404" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C404" s="2"/>
@@ -3882,7 +4297,7 @@
       <c r="N404" s="2"/>
     </row>
     <row r="405" spans="1:14">
-      <c r="A405" s="9"/>
+      <c r="A405" s="7"/>
       <c r="B405" s="2" t="s">
         <v>228</v>
       </c>
@@ -3900,7 +4315,7 @@
       <c r="N405" s="2"/>
     </row>
     <row r="406" spans="1:14">
-      <c r="A406" s="9"/>
+      <c r="A406" s="7"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -3916,7 +4331,7 @@
       <c r="N406" s="2"/>
     </row>
     <row r="407" spans="1:14">
-      <c r="A407" s="8" t="s">
+      <c r="A407" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B407" s="2"/>
@@ -3934,7 +4349,7 @@
       <c r="N407" s="2"/>
     </row>
     <row r="408" spans="1:14">
-      <c r="A408" s="9"/>
+      <c r="A408" s="7"/>
       <c r="B408" s="2" t="s">
         <v>230</v>
       </c>
@@ -3952,7 +4367,7 @@
       <c r="N408" s="2"/>
     </row>
     <row r="409" spans="1:14">
-      <c r="A409" s="9"/>
+      <c r="A409" s="7"/>
       <c r="B409" s="2" t="s">
         <v>231</v>
       </c>
@@ -3970,7 +4385,7 @@
       <c r="N409" s="2"/>
     </row>
     <row r="410" spans="1:14">
-      <c r="A410" s="9"/>
+      <c r="A410" s="7"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -3986,7 +4401,7 @@
       <c r="N410" s="2"/>
     </row>
     <row r="411" spans="1:14">
-      <c r="A411" s="8" t="s">
+      <c r="A411" s="7" t="s">
         <v>232</v>
       </c>
       <c r="B411" s="2"/>
@@ -4004,7 +4419,7 @@
       <c r="N411" s="2"/>
     </row>
     <row r="412" spans="1:14">
-      <c r="A412" s="9"/>
+      <c r="A412" s="7"/>
       <c r="B412" s="2" t="s">
         <v>233</v>
       </c>
@@ -4022,7 +4437,7 @@
       <c r="N412" s="2"/>
     </row>
     <row r="413" spans="1:14">
-      <c r="A413" s="9"/>
+      <c r="A413" s="7"/>
       <c r="B413" s="2" t="s">
         <v>234</v>
       </c>
@@ -4040,8 +4455,8 @@
       <c r="N413" s="2"/>
     </row>
     <row r="414" spans="1:14">
-      <c r="A414" s="9"/>
-      <c r="B414" s="2" t="s">
+      <c r="A414" s="7"/>
+      <c r="B414" s="7" t="s">
         <v>235</v>
       </c>
       <c r="C414" s="2"/>
@@ -4058,8 +4473,8 @@
       <c r="N414" s="2"/>
     </row>
     <row r="415" spans="1:14">
-      <c r="A415" s="9"/>
-      <c r="B415" s="2" t="s">
+      <c r="A415" s="7"/>
+      <c r="B415" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C415" s="2"/>
@@ -4076,8 +4491,8 @@
       <c r="N415" s="2"/>
     </row>
     <row r="416" spans="1:14">
-      <c r="A416" s="9"/>
-      <c r="B416" s="2" t="s">
+      <c r="A416" s="7"/>
+      <c r="B416" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C416" s="2"/>
@@ -4094,7 +4509,7 @@
       <c r="N416" s="2"/>
     </row>
     <row r="417" spans="1:14">
-      <c r="A417" s="9"/>
+      <c r="A417" s="7"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -4110,7 +4525,7 @@
       <c r="N417" s="2"/>
     </row>
     <row r="418" spans="1:14">
-      <c r="A418" s="8" t="s">
+      <c r="A418" s="7" t="s">
         <v>238</v>
       </c>
       <c r="B418" s="2"/>
@@ -4128,7 +4543,7 @@
       <c r="N418" s="2"/>
     </row>
     <row r="419" spans="1:14">
-      <c r="A419" s="9"/>
+      <c r="A419" s="7"/>
       <c r="B419" s="2" t="s">
         <v>239</v>
       </c>
@@ -4146,8 +4561,8 @@
       <c r="N419" s="2"/>
     </row>
     <row r="420" spans="1:14">
-      <c r="A420" s="9"/>
-      <c r="B420" s="2" t="s">
+      <c r="A420" s="7"/>
+      <c r="B420" s="8" t="s">
         <v>240</v>
       </c>
       <c r="C420" s="2"/>
@@ -4164,8 +4579,8 @@
       <c r="N420" s="2"/>
     </row>
     <row r="421" spans="1:14">
-      <c r="A421" s="9"/>
-      <c r="B421" s="2" t="s">
+      <c r="A421" s="7"/>
+      <c r="B421" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C421" s="2"/>
@@ -4182,7 +4597,7 @@
       <c r="N421" s="2"/>
     </row>
     <row r="422" spans="1:14">
-      <c r="A422" s="9"/>
+      <c r="A422" s="7"/>
       <c r="B422" s="2" t="s">
         <v>242</v>
       </c>
@@ -4200,8 +4615,8 @@
       <c r="N422" s="2"/>
     </row>
     <row r="423" spans="1:14">
-      <c r="A423" s="9"/>
-      <c r="B423" s="2" t="s">
+      <c r="A423" s="7"/>
+      <c r="B423" s="7" t="s">
         <v>243</v>
       </c>
       <c r="C423" s="2"/>
@@ -4218,8 +4633,8 @@
       <c r="N423" s="2"/>
     </row>
     <row r="424" spans="1:14">
-      <c r="A424" s="9"/>
-      <c r="B424" s="2" t="s">
+      <c r="A424" s="7"/>
+      <c r="B424" s="7" t="s">
         <v>244</v>
       </c>
       <c r="C424" s="2"/>
@@ -4236,8 +4651,8 @@
       <c r="N424" s="2"/>
     </row>
     <row r="425" spans="1:14">
-      <c r="A425" s="9"/>
-      <c r="B425" s="2" t="s">
+      <c r="A425" s="7"/>
+      <c r="B425" s="7" t="s">
         <v>245</v>
       </c>
       <c r="C425" s="2"/>
@@ -4254,7 +4669,7 @@
       <c r="N425" s="2"/>
     </row>
     <row r="426" spans="1:14">
-      <c r="A426" s="9"/>
+      <c r="A426" s="7"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -4270,7 +4685,7 @@
       <c r="N426" s="2"/>
     </row>
     <row r="427" spans="1:14">
-      <c r="A427" s="8" t="s">
+      <c r="A427" s="7" t="s">
         <v>246</v>
       </c>
       <c r="B427" s="2"/>
@@ -4288,8 +4703,8 @@
       <c r="N427" s="2"/>
     </row>
     <row r="428" spans="1:14">
-      <c r="A428" s="9"/>
-      <c r="B428" s="2" t="s">
+      <c r="A428" s="7"/>
+      <c r="B428" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C428" s="2"/>
@@ -4306,8 +4721,8 @@
       <c r="N428" s="2"/>
     </row>
     <row r="429" spans="1:14">
-      <c r="A429" s="9"/>
-      <c r="B429" s="2" t="s">
+      <c r="A429" s="7"/>
+      <c r="B429" s="7" t="s">
         <v>248</v>
       </c>
       <c r="C429" s="2"/>
@@ -4324,8 +4739,8 @@
       <c r="N429" s="2"/>
     </row>
     <row r="430" spans="1:14">
-      <c r="A430" s="9"/>
-      <c r="B430" s="2" t="s">
+      <c r="A430" s="7"/>
+      <c r="B430" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C430" s="2"/>
@@ -4342,8 +4757,8 @@
       <c r="N430" s="2"/>
     </row>
     <row r="431" spans="1:14">
-      <c r="A431" s="9"/>
-      <c r="B431" s="2" t="s">
+      <c r="A431" s="7"/>
+      <c r="B431" s="7" t="s">
         <v>250</v>
       </c>
       <c r="C431" s="2"/>
@@ -4360,7 +4775,7 @@
       <c r="N431" s="2"/>
     </row>
     <row r="432" spans="1:14">
-      <c r="A432" s="9"/>
+      <c r="A432" s="7"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -4376,50 +4791,50 @@
       <c r="N432" s="2"/>
     </row>
     <row r="434" s="2" customFormat="1" spans="1:1">
-      <c r="A434" s="8" t="s">
+      <c r="A434" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="435" s="2" customFormat="1" spans="1:2">
-      <c r="A435" s="9"/>
+      <c r="A435" s="7"/>
       <c r="B435" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="436" s="2" customFormat="1" spans="1:1">
-      <c r="A436" s="9"/>
+      <c r="A436" s="7"/>
     </row>
     <row r="437" s="2" customFormat="1" spans="1:1">
-      <c r="A437" s="8" t="s">
+      <c r="A437" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="438" s="2" customFormat="1" spans="1:2">
-      <c r="A438" s="9"/>
+      <c r="A438" s="7"/>
       <c r="B438" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="439" s="2" customFormat="1" spans="1:2">
-      <c r="A439" s="9"/>
+      <c r="A439" s="7"/>
       <c r="B439" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="440" s="2" customFormat="1" spans="1:2">
-      <c r="A440" s="9"/>
+      <c r="A440" s="7"/>
       <c r="B440" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="441" s="2" customFormat="1" spans="1:1">
-      <c r="A441" s="9"/>
+      <c r="A441" s="7"/>
     </row>
     <row r="442" s="2" customFormat="1" spans="1:1">
-      <c r="A442" s="9"/>
+      <c r="A442" s="7"/>
     </row>
     <row r="443" s="2" customFormat="1" spans="1:2">
-      <c r="A443" s="8" t="s">
+      <c r="A443" s="7" t="s">
         <v>256</v>
       </c>
       <c r="B443" s="2" t="s">
@@ -4427,10 +4842,10 @@
       </c>
     </row>
     <row r="444" s="2" customFormat="1" spans="1:1">
-      <c r="A444" s="9"/>
+      <c r="A444" s="7"/>
     </row>
     <row r="445" s="2" customFormat="1" spans="1:1">
-      <c r="A445" s="9"/>
+      <c r="A445" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/JVM.xlsx
+++ b/JVM.xlsx
@@ -674,6 +674,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>局部变量表是一组</t>
     </r>
     <r>
@@ -756,6 +763,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每个Slot都应该能存放一个boolean,byte,char,short,int,float,</t>
     </r>
     <r>
@@ -809,6 +823,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1，从此引用中直接或间接地</t>
     </r>
     <r>
@@ -867,6 +888,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2，此引用中直接或间接的</t>
     </r>
     <r>
@@ -928,6 +956,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>操作数栈可理解为java虚拟机栈中的一个</t>
     </r>
     <r>
@@ -986,6 +1021,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>class文件的常量池中存有大量的符号引用</t>
     </r>
     <r>
@@ -1012,6 +1055,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>引用一部分会在类加载阶段或者第一次使用的时候就转化为直接引用</t>
     </r>
     <r>
@@ -1038,6 +1089,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>另一部分将</t>
     </r>
     <r>
@@ -1081,6 +1139,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1，执行引擎遇到任意一个</t>
     </r>
     <r>
@@ -1097,6 +1162,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2，方法执行过程中</t>
     </r>
     <r>
@@ -1116,6 +1188,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>方法返回时可能需要在栈帧中保存一些信息</t>
     </r>
     <r>
@@ -1152,6 +1232,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>正常退出时</t>
     </r>
     <r>
@@ -1199,6 +1287,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>异常退出时</t>
     </r>
     <r>
@@ -1228,6 +1324,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>方法退出的过程实际上就等于</t>
     </r>
     <r>
@@ -1257,6 +1360,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>把</t>
     </r>
     <r>
@@ -1283,6 +1393,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>调整PC计数器的值</t>
     </r>
     <r>
@@ -1335,8 +1453,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1356,31 +1474,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1388,14 +1484,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1411,21 +1499,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,9 +1526,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1461,40 +1611,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1515,13 +1633,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,37 +1705,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,7 +1741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,13 +1759,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,43 +1789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,37 +1807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,30 +1818,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1766,6 +1860,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1777,10 +1886,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1800,16 +1907,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1818,133 +1936,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2794,8 +2912,8 @@
   <sheetPr/>
   <dimension ref="A1:N445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="E435" sqref="E435"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="I425" sqref="I425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/JVM.xlsx
+++ b/JVM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="24525" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -1454,8 +1454,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1474,67 +1474,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1549,8 +1491,97 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1573,39 +1604,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,7 +1627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,13 +1645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,13 +1663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,19 +1681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,67 +1699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,7 +1723,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,13 +1777,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,25 +1821,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1856,6 +1847,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1886,30 +1886,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1918,16 +1894,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1936,133 +1936,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2912,8 +2912,8 @@
   <sheetPr/>
   <dimension ref="A1:N445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="I425" sqref="I425"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/JVM.xlsx
+++ b/JVM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240"/>
+    <workbookView windowWidth="20325" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -142,7 +142,7 @@
     <t>分配内存方式：</t>
   </si>
   <si>
-    <t>指针碰撞法：</t>
+    <t>如果堆中内存是绝对规整的选择指针碰撞法：</t>
   </si>
   <si>
     <t>用过的内存都放在一边，空闲的内存放在另一边，</t>
@@ -154,7 +154,7 @@
     <t>把指针指向空闲空间那边挪动一段与对象大小相等的距离</t>
   </si>
   <si>
-    <t>空闲列表</t>
+    <t>如果堆中内存空间不是规整列表</t>
   </si>
   <si>
     <t>虚拟机维护一个列表，记录上那些内存块是可用的</t>
@@ -1454,8 +1454,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1474,112 +1474,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1595,8 +1489,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1612,7 +1550,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,7 +1627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1639,7 +1639,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,13 +1675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,19 +1687,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,13 +1723,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,7 +1765,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1730,66 +1790,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,17 +1821,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1851,15 +1845,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1871,6 +1856,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1895,21 +1910,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1924,10 +1924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1936,133 +1936,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2233,13 +2233,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2257,7 +2257,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5133975" y="18345150"/>
+          <a:off x="5133975" y="18526125"/>
           <a:ext cx="7305675" cy="3371850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2275,13 +2275,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2299,7 +2299,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5419725" y="22983825"/>
+          <a:off x="5419725" y="23164800"/>
           <a:ext cx="7381875" cy="3371850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2317,13 +2317,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2341,7 +2341,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1724025" y="28117800"/>
+          <a:off x="1724025" y="28298775"/>
           <a:ext cx="3914775" cy="2177415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2359,13 +2359,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2383,7 +2383,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390900" y="36204525"/>
+          <a:off x="3390900" y="36385500"/>
           <a:ext cx="6086475" cy="3743325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2401,13 +2401,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2425,7 +2425,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="41186100"/>
+          <a:off x="647700" y="41367075"/>
           <a:ext cx="5353050" cy="1504950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2443,13 +2443,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2467,7 +2467,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="43434000"/>
+          <a:off x="1304925" y="43614975"/>
           <a:ext cx="5448300" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2485,13 +2485,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2509,7 +2509,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="45605700"/>
+          <a:off x="1304925" y="45786675"/>
           <a:ext cx="5381625" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2527,13 +2527,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>272</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2551,7 +2551,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="47596425"/>
+          <a:off x="1304925" y="47777400"/>
           <a:ext cx="5314950" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2569,13 +2569,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2593,7 +2593,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="49587150"/>
+          <a:off x="1304925" y="49768125"/>
           <a:ext cx="5324475" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2611,13 +2611,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>364</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>376</xdr:row>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2635,7 +2635,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="65846325"/>
+          <a:off x="1304925" y="66027300"/>
           <a:ext cx="2657475" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2910,10 +2910,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N445"/>
+  <dimension ref="A1:N446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3147,252 +3147,251 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>46</v>
       </c>
-      <c r="C56" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="3" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="3" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="3" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="3" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="148" s="1" customFormat="1" spans="1:1">
-      <c r="A148" s="5" t="s">
+    <row r="149" s="1" customFormat="1" spans="1:1">
+      <c r="A149" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="149" s="1" customFormat="1" spans="1:2">
-      <c r="A149" s="5"/>
-      <c r="B149" s="1" t="s">
+    <row r="150" s="1" customFormat="1" spans="1:2">
+      <c r="A150" s="5"/>
+      <c r="B150" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="150" s="1" customFormat="1" spans="1:1">
-      <c r="A150" s="5"/>
-    </row>
     <row r="151" s="1" customFormat="1" spans="1:1">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="5"/>
+    </row>
+    <row r="152" s="1" customFormat="1" spans="1:1">
+      <c r="A152" s="5" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="152" s="1" customFormat="1" spans="1:2">
-      <c r="A152" s="5"/>
-      <c r="B152" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="1" spans="1:2">
       <c r="A153" s="5"/>
       <c r="B153" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="1" spans="1:2">
       <c r="A154" s="5"/>
       <c r="B154" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="1" spans="1:2">
       <c r="A155" s="5"/>
       <c r="B155" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="1" spans="1:2">
+      <c r="A156" s="5"/>
+      <c r="B156" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="156" s="1" customFormat="1" spans="1:1">
-      <c r="A156" s="5"/>
     </row>
     <row r="157" s="1" customFormat="1" spans="1:1">
       <c r="A157" s="5"/>
@@ -3431,204 +3430,204 @@
       <c r="A168" s="5"/>
     </row>
     <row r="169" s="1" customFormat="1" spans="1:1">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="5"/>
+    </row>
+    <row r="170" s="1" customFormat="1" spans="1:1">
+      <c r="A170" s="5" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="170" s="1" customFormat="1" spans="1:2">
-      <c r="A170" s="5"/>
-      <c r="B170" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="1" spans="1:2">
       <c r="A171" s="5"/>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="172" s="1" customFormat="1" spans="1:2">
+      <c r="A172" s="5"/>
+      <c r="B172" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="172" s="1" customFormat="1" spans="1:3">
-      <c r="A172" s="5"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="1" t="s">
+    <row r="173" s="1" customFormat="1" spans="1:3">
+      <c r="A173" s="5"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="173" s="1" customFormat="1" spans="1:2">
-      <c r="A173" s="5"/>
-      <c r="B173" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="1" spans="1:2">
       <c r="A174" s="5"/>
       <c r="B174" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" s="1" customFormat="1" spans="1:2">
+      <c r="A175" s="5"/>
+      <c r="B175" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="175" s="1" customFormat="1" spans="1:3">
-      <c r="A175" s="5"/>
-      <c r="C175" s="1" t="s">
+    <row r="176" s="1" customFormat="1" spans="1:3">
+      <c r="A176" s="5"/>
+      <c r="C176" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="176" s="1" customFormat="1" spans="1:2">
-      <c r="A176" s="5"/>
-      <c r="B176" s="1" t="s">
+    <row r="177" s="1" customFormat="1" spans="1:2">
+      <c r="A177" s="5"/>
+      <c r="B177" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="177" s="1" customFormat="1" spans="1:1">
-      <c r="A177" s="5"/>
-    </row>
     <row r="178" s="1" customFormat="1" spans="1:1">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="5"/>
+    </row>
+    <row r="179" s="1" customFormat="1" spans="1:1">
+      <c r="A179" s="5" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="179" s="1" customFormat="1" spans="1:2">
-      <c r="A179" s="5"/>
-      <c r="B179" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="1" spans="1:2">
       <c r="A180" s="5"/>
       <c r="B180" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="1" spans="1:2">
       <c r="A181" s="5"/>
       <c r="B181" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="1" spans="1:2">
       <c r="A182" s="5"/>
       <c r="B182" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="1" spans="1:2">
+      <c r="A183" s="5"/>
+      <c r="B183" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="183" s="1" customFormat="1" spans="1:1">
-      <c r="A183" s="5"/>
-    </row>
     <row r="184" s="1" customFormat="1" spans="1:1">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="5"/>
+    </row>
+    <row r="185" s="1" customFormat="1" spans="1:1">
+      <c r="A185" s="5" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="185" s="1" customFormat="1" spans="1:2">
-      <c r="A185" s="5"/>
-      <c r="B185" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="1" spans="1:2">
       <c r="A186" s="5"/>
       <c r="B186" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="1" spans="1:2">
       <c r="A187" s="5"/>
       <c r="B187" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="1" spans="1:2">
       <c r="A188" s="5"/>
       <c r="B188" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="1" spans="1:2">
       <c r="A189" s="5"/>
       <c r="B189" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="1" spans="1:2">
       <c r="A190" s="5"/>
       <c r="B190" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="1" spans="1:2">
+      <c r="A191" s="5"/>
+      <c r="B191" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="191" s="1" customFormat="1" spans="1:3">
-      <c r="A191" s="5"/>
-      <c r="C191" s="1" t="s">
+    <row r="192" s="1" customFormat="1" spans="1:3">
+      <c r="A192" s="5"/>
+      <c r="C192" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="192" s="1" customFormat="1" spans="1:2">
-      <c r="A192" s="5"/>
-      <c r="B192" s="1" t="s">
+    <row r="193" s="1" customFormat="1" spans="1:2">
+      <c r="A193" s="5"/>
+      <c r="B193" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="193" s="1" customFormat="1" spans="1:3">
-      <c r="A193" s="5"/>
-      <c r="C193" s="1" t="s">
+    <row r="194" s="1" customFormat="1" spans="1:3">
+      <c r="A194" s="5"/>
+      <c r="C194" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="194" s="1" customFormat="1" spans="1:1">
-      <c r="A194" s="5" t="s">
+    <row r="195" s="1" customFormat="1" spans="1:1">
+      <c r="A195" s="5" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="195" s="1" customFormat="1" spans="1:2">
-      <c r="A195" s="5"/>
-      <c r="B195" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="1" spans="1:2">
       <c r="A196" s="5"/>
       <c r="B196" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="1" spans="1:2">
       <c r="A197" s="5"/>
       <c r="B197" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="1" spans="1:2">
       <c r="A198" s="5"/>
       <c r="B198" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="199" s="1" customFormat="1" spans="1:2">
+      <c r="A199" s="5"/>
+      <c r="B199" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="199" s="1" customFormat="1" spans="1:1">
-      <c r="A199" s="5"/>
-    </row>
     <row r="200" s="1" customFormat="1" spans="1:1">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="5"/>
+    </row>
+    <row r="201" s="1" customFormat="1" spans="1:1">
+      <c r="A201" s="5" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="201" s="1" customFormat="1" spans="1:2">
-      <c r="A201" s="5"/>
-      <c r="B201" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="1" spans="1:2">
       <c r="A202" s="5"/>
       <c r="B202" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="1" spans="1:2">
       <c r="A203" s="5"/>
       <c r="B203" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="204" s="1" customFormat="1" spans="1:2">
+      <c r="A204" s="5"/>
+      <c r="B204" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="204" s="1" customFormat="1" spans="1:1">
-      <c r="A204" s="5"/>
     </row>
     <row r="205" s="1" customFormat="1" spans="1:1">
       <c r="A205" s="5"/>
@@ -3685,36 +3684,36 @@
       <c r="A222" s="5"/>
     </row>
     <row r="223" s="1" customFormat="1" spans="1:1">
-      <c r="A223" s="5" t="s">
+      <c r="A223" s="5"/>
+    </row>
+    <row r="224" s="1" customFormat="1" spans="1:1">
+      <c r="A224" s="5" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="224" s="1" customFormat="1" spans="1:2">
-      <c r="A224" s="5"/>
-      <c r="B224" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="225" s="1" customFormat="1" spans="1:2">
       <c r="A225" s="5"/>
       <c r="B225" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="226" s="1" customFormat="1" spans="1:2">
       <c r="A226" s="5"/>
       <c r="B226" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="227" s="1" customFormat="1" spans="1:2">
       <c r="A227" s="5"/>
       <c r="B227" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="228" s="1" customFormat="1" spans="1:2">
+      <c r="A228" s="5"/>
+      <c r="B228" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="228" s="1" customFormat="1" spans="1:1">
-      <c r="A228" s="5"/>
     </row>
     <row r="229" s="1" customFormat="1" spans="1:1">
       <c r="A229" s="5"/>
@@ -3746,20 +3745,20 @@
     <row r="238" s="1" customFormat="1" spans="1:1">
       <c r="A238" s="5"/>
     </row>
-    <row r="239" s="1" customFormat="1" spans="1:2">
+    <row r="239" s="1" customFormat="1" spans="1:1">
       <c r="A239" s="5"/>
-      <c r="B239" s="1" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="240" s="1" customFormat="1" spans="1:2">
       <c r="A240" s="5"/>
       <c r="B240" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="241" s="1" customFormat="1" spans="1:2">
+      <c r="A241" s="5"/>
+      <c r="B241" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="241" s="1" customFormat="1" spans="1:1">
-      <c r="A241" s="5"/>
     </row>
     <row r="242" s="1" customFormat="1" spans="1:1">
       <c r="A242" s="5"/>
@@ -3788,20 +3787,20 @@
     <row r="250" s="1" customFormat="1" spans="1:1">
       <c r="A250" s="5"/>
     </row>
-    <row r="251" s="1" customFormat="1" spans="1:2">
+    <row r="251" s="1" customFormat="1" spans="1:1">
       <c r="A251" s="5"/>
-      <c r="B251" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="252" s="1" customFormat="1" spans="1:2">
       <c r="A252" s="5"/>
       <c r="B252" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="253" s="1" customFormat="1" spans="1:2">
+      <c r="A253" s="5"/>
+      <c r="B253" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="253" s="1" customFormat="1" spans="1:1">
-      <c r="A253" s="5"/>
     </row>
     <row r="254" s="1" customFormat="1" spans="1:1">
       <c r="A254" s="5"/>
@@ -3830,14 +3829,14 @@
     <row r="262" s="1" customFormat="1" spans="1:1">
       <c r="A262" s="5"/>
     </row>
-    <row r="263" s="1" customFormat="1" spans="1:2">
+    <row r="263" s="1" customFormat="1" spans="1:1">
       <c r="A263" s="5"/>
-      <c r="B263" s="1" t="s">
+    </row>
+    <row r="264" s="1" customFormat="1" spans="1:2">
+      <c r="A264" s="5"/>
+      <c r="B264" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="264" s="1" customFormat="1" spans="1:1">
-      <c r="A264" s="5"/>
     </row>
     <row r="265" s="1" customFormat="1" spans="1:1">
       <c r="A265" s="5"/>
@@ -3866,14 +3865,14 @@
     <row r="273" s="1" customFormat="1" spans="1:1">
       <c r="A273" s="5"/>
     </row>
-    <row r="274" s="1" customFormat="1" spans="1:2">
+    <row r="274" s="1" customFormat="1" spans="1:1">
       <c r="A274" s="5"/>
-      <c r="B274" s="1" t="s">
+    </row>
+    <row r="275" s="1" customFormat="1" spans="1:2">
+      <c r="A275" s="5"/>
+      <c r="B275" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="275" s="1" customFormat="1" spans="1:1">
-      <c r="A275" s="5"/>
     </row>
     <row r="276" s="1" customFormat="1" spans="1:1">
       <c r="A276" s="5"/>
@@ -3899,508 +3898,493 @@
     <row r="283" s="1" customFormat="1" spans="1:1">
       <c r="A283" s="5"/>
     </row>
-    <row r="284" s="1" customFormat="1" spans="1:2">
+    <row r="284" s="1" customFormat="1" spans="1:1">
       <c r="A284" s="5"/>
-      <c r="B284" s="1" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="285" s="1" customFormat="1" spans="1:2">
       <c r="A285" s="5"/>
       <c r="B285" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="286" s="1" customFormat="1" spans="1:2">
       <c r="A286" s="5"/>
       <c r="B286" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="287" s="1" customFormat="1" spans="1:2">
+      <c r="A287" s="5"/>
+      <c r="B287" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="287" s="1" customFormat="1" spans="1:1">
-      <c r="A287" s="5"/>
-    </row>
-    <row r="288" customFormat="1" spans="1:1">
-      <c r="A288" s="3" t="s">
+    <row r="288" s="1" customFormat="1" spans="1:1">
+      <c r="A288" s="5"/>
+    </row>
+    <row r="289" customFormat="1" spans="1:1">
+      <c r="A289" s="3" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="289" customFormat="1" spans="1:2">
-      <c r="A289" s="3"/>
-      <c r="B289" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="290" customFormat="1" spans="1:2">
       <c r="A290" s="3"/>
       <c r="B290" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="291" customFormat="1" spans="1:2">
+      <c r="A291" s="3"/>
+      <c r="B291" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="292" customFormat="1" spans="1:2">
-      <c r="A292" s="3" t="s">
+    <row r="293" customFormat="1" spans="1:2">
+      <c r="A293" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B293" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="293" customFormat="1" spans="1:2">
-      <c r="A293" s="3"/>
-      <c r="B293" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="294" customFormat="1" spans="1:2">
       <c r="A294" s="3"/>
       <c r="B294" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="295" customFormat="1" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="295" customFormat="1" spans="1:2">
       <c r="A295" s="3"/>
       <c r="B295" t="s">
-        <v>149</v>
-      </c>
-      <c r="C295" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="296" customFormat="1" spans="1:2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="296" customFormat="1" spans="1:3">
       <c r="A296" s="3"/>
       <c r="B296" t="s">
+        <v>149</v>
+      </c>
+      <c r="C296" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="297" customFormat="1" spans="1:2">
+      <c r="A297" s="3"/>
+      <c r="B297" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="297" customFormat="1" spans="1:3">
-      <c r="A297" s="3"/>
-      <c r="C297" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="298" customFormat="1" spans="1:3">
       <c r="A298" s="3"/>
       <c r="C298" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="299" customFormat="1" spans="1:3">
       <c r="A299" s="3"/>
       <c r="C299" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="300" customFormat="1" spans="1:3">
+      <c r="A300" s="3"/>
+      <c r="C300" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="301" customFormat="1" spans="1:2">
-      <c r="A301" s="3" t="s">
+    <row r="302" customFormat="1" spans="1:2">
+      <c r="A302" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B302" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="302" customFormat="1" spans="1:2">
-      <c r="A302" s="3"/>
-      <c r="B302" t="s">
+    <row r="303" customFormat="1" spans="1:2">
+      <c r="A303" s="3"/>
+      <c r="B303" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="304" customFormat="1" spans="1:1">
-      <c r="A304" s="3" t="s">
+    <row r="305" customFormat="1" spans="1:1">
+      <c r="A305" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="305" customFormat="1" spans="1:2">
-      <c r="A305" s="3"/>
-      <c r="B305" t="s">
+    <row r="306" customFormat="1" spans="1:2">
+      <c r="A306" s="3"/>
+      <c r="B306" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="306" customFormat="1" spans="1:1">
-      <c r="A306" s="3" t="s">
+    <row r="307" customFormat="1" spans="1:1">
+      <c r="A307" s="3" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="307" customFormat="1" spans="1:2">
-      <c r="A307" s="3"/>
-      <c r="B307" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="308" customFormat="1" spans="1:2">
       <c r="A308" s="3"/>
       <c r="B308" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="309" customFormat="1" spans="1:2">
       <c r="A309" s="3"/>
       <c r="B309" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="310" customFormat="1" spans="1:2">
       <c r="A310" s="3"/>
       <c r="B310" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="311" customFormat="1" spans="1:2">
       <c r="A311" s="3"/>
       <c r="B311" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="312" customFormat="1" spans="1:2">
+      <c r="A312" s="3"/>
+      <c r="B312" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="313" customFormat="1" spans="1:1">
-      <c r="A313" s="3" t="s">
+    <row r="314" customFormat="1" spans="1:1">
+      <c r="A314" s="3" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="314" customFormat="1" spans="1:2">
-      <c r="A314" s="3"/>
-      <c r="B314" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="315" customFormat="1" spans="1:2">
       <c r="A315" s="3"/>
       <c r="B315" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="316" customFormat="1" spans="1:2">
+      <c r="A316" s="3"/>
+      <c r="B316" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="317" customFormat="1" spans="1:2">
-      <c r="A317" s="3"/>
-      <c r="B317" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="318" customFormat="1" spans="1:2">
       <c r="A318" s="3"/>
       <c r="B318" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="319" customFormat="1" spans="1:2">
       <c r="A319" s="3"/>
       <c r="B319" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="320" customFormat="1" spans="1:2">
+      <c r="A320" s="3"/>
+      <c r="B320" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="321" customFormat="1" spans="1:1">
-      <c r="A321" s="3" t="s">
+    <row r="322" customFormat="1" spans="1:1">
+      <c r="A322" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="322" customFormat="1" spans="1:2">
-      <c r="A322" s="3"/>
-      <c r="B322" t="s">
+    <row r="323" customFormat="1" spans="1:2">
+      <c r="A323" s="3"/>
+      <c r="B323" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="324" customFormat="1" spans="1:2">
-      <c r="A324" s="3" t="s">
+    <row r="325" customFormat="1" spans="1:2">
+      <c r="A325" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B325" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="325" customFormat="1" spans="1:2">
-      <c r="A325" s="3"/>
-      <c r="B325" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="326" customFormat="1" spans="1:2">
       <c r="A326" s="3"/>
       <c r="B326" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="327" customFormat="1" spans="1:2">
       <c r="A327" s="3"/>
       <c r="B327" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="328" customFormat="1" spans="1:2">
+      <c r="A328" s="3"/>
+      <c r="B328" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="329" customFormat="1" spans="1:2">
-      <c r="A329" s="3" t="s">
+    <row r="330" customFormat="1" spans="1:2">
+      <c r="A330" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B330" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="330" customFormat="1" spans="1:2">
-      <c r="A330" s="3"/>
-      <c r="B330" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="331" customFormat="1" spans="1:2">
       <c r="A331" s="3"/>
       <c r="B331" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="332" customFormat="1" spans="1:2">
       <c r="A332" s="3"/>
       <c r="B332" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="333" customFormat="1" spans="1:2">
       <c r="A333" s="3"/>
       <c r="B333" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="334" customFormat="1" spans="1:2">
+      <c r="A334" s="3"/>
+      <c r="B334" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="335" customFormat="1" spans="1:2">
-      <c r="A335" s="3" t="s">
+    <row r="336" customFormat="1" spans="1:2">
+      <c r="A336" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B336" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="336" customFormat="1" spans="1:2">
-      <c r="A336" s="3"/>
-      <c r="B336" t="s">
+    <row r="337" customFormat="1" spans="1:2">
+      <c r="A337" s="3"/>
+      <c r="B337" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="338" customFormat="1" spans="1:2">
-      <c r="A338" s="3" t="s">
+    <row r="339" customFormat="1" spans="1:2">
+      <c r="A339" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B339" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="339" customFormat="1" spans="1:2">
-      <c r="A339" s="3"/>
-      <c r="B339" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="340" customFormat="1" spans="1:2">
       <c r="A340" s="3"/>
       <c r="B340" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="341" customFormat="1" spans="1:2">
       <c r="A341" s="3"/>
       <c r="B341" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="342" customFormat="1" spans="1:2">
+      <c r="A342" s="3"/>
+      <c r="B342" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="343" customFormat="1" spans="1:2">
-      <c r="A343" s="3" t="s">
+    <row r="344" customFormat="1" spans="1:2">
+      <c r="A344" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B344" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="346" customFormat="1" spans="1:2">
-      <c r="A346" s="3" t="s">
+    <row r="347" customFormat="1" spans="1:2">
+      <c r="A347" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B347" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="347" customFormat="1" spans="1:2">
-      <c r="A347" s="3"/>
-      <c r="B347" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="348" customFormat="1" spans="1:2">
       <c r="A348" s="3"/>
       <c r="B348" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="349" customFormat="1" spans="1:2">
+      <c r="A349" s="3"/>
+      <c r="B349" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="350" customFormat="1" spans="1:1">
-      <c r="A350" s="3" t="s">
+    <row r="351" customFormat="1" spans="1:1">
+      <c r="A351" s="3" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="351" customFormat="1" spans="1:2">
-      <c r="A351" s="3"/>
-      <c r="B351" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="352" customFormat="1" spans="1:2">
       <c r="A352" s="3"/>
       <c r="B352" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="353" customFormat="1" spans="1:2">
       <c r="A353" s="3"/>
       <c r="B353" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="354" customFormat="1" spans="1:2">
+      <c r="A354" s="3"/>
+      <c r="B354" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="355" customFormat="1" spans="1:1">
-      <c r="A355" s="3" t="s">
+    <row r="356" customFormat="1" spans="1:1">
+      <c r="A356" s="3" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="356" customFormat="1" spans="1:2">
-      <c r="A356" s="3"/>
-      <c r="B356" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="357" customFormat="1" spans="1:2">
       <c r="A357" s="3"/>
       <c r="B357" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="358" customFormat="1" spans="1:2">
       <c r="A358" s="3"/>
       <c r="B358" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="359" customFormat="1" spans="1:2">
       <c r="A359" s="3"/>
       <c r="B359" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="360" customFormat="1" spans="1:2">
+      <c r="A360" s="3"/>
+      <c r="B360" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="361" customFormat="1" spans="1:2">
-      <c r="A361" s="3"/>
-      <c r="B361" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="362" customFormat="1" spans="1:2">
       <c r="A362" s="3"/>
       <c r="B362" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="363" customFormat="1" spans="1:2">
       <c r="A363" s="3"/>
       <c r="B363" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="364" customFormat="1" spans="1:2">
+      <c r="A364" s="3"/>
+      <c r="B364" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="379" s="1" customFormat="1" spans="1:1">
-      <c r="A379" s="5"/>
     </row>
     <row r="380" s="1" customFormat="1" spans="1:1">
       <c r="A380" s="5"/>
     </row>
-    <row r="381" spans="1:1">
-      <c r="A381" s="3" t="s">
+    <row r="381" s="1" customFormat="1" spans="1:1">
+      <c r="A381" s="5"/>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="3" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="382" spans="2:2">
-      <c r="B382" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="383" spans="2:2">
       <c r="B383" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="384" spans="2:2">
       <c r="B384" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="385" spans="2:2">
       <c r="B385" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
-      <c r="A387" s="3" t="s">
+    <row r="388" spans="1:1">
+      <c r="A388" s="3" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="388" spans="2:2">
-      <c r="B388" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="389" spans="2:2">
       <c r="B389" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
-      <c r="A392" s="3" t="s">
+    <row r="393" spans="1:1">
+      <c r="A393" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="393" spans="2:2">
-      <c r="B393" s="4" t="s">
+    <row r="394" spans="2:2">
+      <c r="B394" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="394" spans="2:2">
-      <c r="B394" t="s">
+    <row r="395" spans="2:2">
+      <c r="B395" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="395" spans="2:2">
-      <c r="B395" s="4" t="s">
+    <row r="396" spans="2:2">
+      <c r="B396" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
-      <c r="A397" s="3" t="s">
+    <row r="398" spans="1:1">
+      <c r="A398" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="398" spans="2:2">
-      <c r="B398" t="s">
+    <row r="399" spans="2:2">
+      <c r="B399" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="399" spans="2:2">
-      <c r="B399" s="4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="400" spans="2:2">
       <c r="B400" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
-      <c r="A403" s="7" t="s">
+    <row r="404" spans="1:14">
+      <c r="A404" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B403" s="2"/>
-      <c r="C403" s="2"/>
-      <c r="D403" s="2"/>
-      <c r="E403" s="2"/>
-      <c r="F403" s="2"/>
-      <c r="G403" s="2"/>
-      <c r="H403" s="2"/>
-      <c r="I403" s="2"/>
-      <c r="J403" s="2"/>
-      <c r="K403" s="2"/>
-      <c r="L403" s="2"/>
-      <c r="M403" s="2"/>
-      <c r="N403" s="2"/>
-    </row>
-    <row r="404" spans="1:14">
-      <c r="A404" s="7"/>
-      <c r="B404" s="8" t="s">
-        <v>227</v>
-      </c>
+      <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -4416,8 +4400,8 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="7"/>
-      <c r="B405" s="2" t="s">
-        <v>228</v>
+      <c r="B405" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -4434,7 +4418,9 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="7"/>
-      <c r="B406" s="2"/>
+      <c r="B406" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -4449,9 +4435,7 @@
       <c r="N406" s="2"/>
     </row>
     <row r="407" spans="1:14">
-      <c r="A407" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="A407" s="7"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -4467,10 +4451,10 @@
       <c r="N407" s="2"/>
     </row>
     <row r="408" spans="1:14">
-      <c r="A408" s="7"/>
-      <c r="B408" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="A408" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -4487,7 +4471,7 @@
     <row r="409" spans="1:14">
       <c r="A409" s="7"/>
       <c r="B409" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -4504,7 +4488,9 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="7"/>
-      <c r="B410" s="2"/>
+      <c r="B410" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -4519,9 +4505,7 @@
       <c r="N410" s="2"/>
     </row>
     <row r="411" spans="1:14">
-      <c r="A411" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="A411" s="7"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -4537,10 +4521,10 @@
       <c r="N411" s="2"/>
     </row>
     <row r="412" spans="1:14">
-      <c r="A412" s="7"/>
-      <c r="B412" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="A412" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -4557,7 +4541,7 @@
     <row r="413" spans="1:14">
       <c r="A413" s="7"/>
       <c r="B413" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -4574,8 +4558,8 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="7"/>
-      <c r="B414" s="7" t="s">
-        <v>235</v>
+      <c r="B414" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -4593,7 +4577,7 @@
     <row r="415" spans="1:14">
       <c r="A415" s="7"/>
       <c r="B415" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -4610,8 +4594,8 @@
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="7"/>
-      <c r="B416" s="8" t="s">
-        <v>237</v>
+      <c r="B416" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -4628,7 +4612,9 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="7"/>
-      <c r="B417" s="2"/>
+      <c r="B417" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -4643,9 +4629,7 @@
       <c r="N417" s="2"/>
     </row>
     <row r="418" spans="1:14">
-      <c r="A418" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="A418" s="7"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -4661,10 +4645,10 @@
       <c r="N418" s="2"/>
     </row>
     <row r="419" spans="1:14">
-      <c r="A419" s="7"/>
-      <c r="B419" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="A419" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -4680,8 +4664,8 @@
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="7"/>
-      <c r="B420" s="8" t="s">
-        <v>240</v>
+      <c r="B420" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -4699,7 +4683,7 @@
     <row r="421" spans="1:14">
       <c r="A421" s="7"/>
       <c r="B421" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -4716,8 +4700,8 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="7"/>
-      <c r="B422" s="2" t="s">
-        <v>242</v>
+      <c r="B422" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -4734,8 +4718,8 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="7"/>
-      <c r="B423" s="7" t="s">
-        <v>243</v>
+      <c r="B423" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -4753,7 +4737,7 @@
     <row r="424" spans="1:14">
       <c r="A424" s="7"/>
       <c r="B424" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -4771,7 +4755,7 @@
     <row r="425" spans="1:14">
       <c r="A425" s="7"/>
       <c r="B425" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -4788,7 +4772,9 @@
     </row>
     <row r="426" spans="1:14">
       <c r="A426" s="7"/>
-      <c r="B426" s="2"/>
+      <c r="B426" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -4803,9 +4789,7 @@
       <c r="N426" s="2"/>
     </row>
     <row r="427" spans="1:14">
-      <c r="A427" s="7" t="s">
-        <v>246</v>
-      </c>
+      <c r="A427" s="7"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -4821,10 +4805,10 @@
       <c r="N427" s="2"/>
     </row>
     <row r="428" spans="1:14">
-      <c r="A428" s="7"/>
-      <c r="B428" s="8" t="s">
-        <v>247</v>
-      </c>
+      <c r="A428" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -4840,8 +4824,8 @@
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="7"/>
-      <c r="B429" s="7" t="s">
-        <v>248</v>
+      <c r="B429" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -4858,8 +4842,8 @@
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="7"/>
-      <c r="B430" s="8" t="s">
-        <v>249</v>
+      <c r="B430" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -4876,8 +4860,8 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="7"/>
-      <c r="B431" s="7" t="s">
-        <v>250</v>
+      <c r="B431" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -4894,7 +4878,9 @@
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="7"/>
-      <c r="B432" s="2"/>
+      <c r="B432" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -4908,62 +4894,78 @@
       <c r="M432" s="2"/>
       <c r="N432" s="2"/>
     </row>
-    <row r="434" s="2" customFormat="1" spans="1:1">
-      <c r="A434" s="7" t="s">
+    <row r="433" spans="1:14">
+      <c r="A433" s="7"/>
+      <c r="B433" s="2"/>
+      <c r="C433" s="2"/>
+      <c r="D433" s="2"/>
+      <c r="E433" s="2"/>
+      <c r="F433" s="2"/>
+      <c r="G433" s="2"/>
+      <c r="H433" s="2"/>
+      <c r="I433" s="2"/>
+      <c r="J433" s="2"/>
+      <c r="K433" s="2"/>
+      <c r="L433" s="2"/>
+      <c r="M433" s="2"/>
+      <c r="N433" s="2"/>
+    </row>
+    <row r="435" s="2" customFormat="1" spans="1:1">
+      <c r="A435" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="435" s="2" customFormat="1" spans="1:2">
-      <c r="A435" s="7"/>
-      <c r="B435" s="2" t="s">
+    <row r="436" s="2" customFormat="1" spans="1:2">
+      <c r="A436" s="7"/>
+      <c r="B436" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="436" s="2" customFormat="1" spans="1:1">
-      <c r="A436" s="7"/>
-    </row>
     <row r="437" s="2" customFormat="1" spans="1:1">
-      <c r="A437" s="7" t="s">
+      <c r="A437" s="7"/>
+    </row>
+    <row r="438" s="2" customFormat="1" spans="1:1">
+      <c r="A438" s="7" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="438" s="2" customFormat="1" spans="1:2">
-      <c r="A438" s="7"/>
-      <c r="B438" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="439" s="2" customFormat="1" spans="1:2">
       <c r="A439" s="7"/>
       <c r="B439" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="440" s="2" customFormat="1" spans="1:2">
       <c r="A440" s="7"/>
       <c r="B440" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="441" s="2" customFormat="1" spans="1:2">
+      <c r="A441" s="7"/>
+      <c r="B441" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="441" s="2" customFormat="1" spans="1:1">
-      <c r="A441" s="7"/>
     </row>
     <row r="442" s="2" customFormat="1" spans="1:1">
       <c r="A442" s="7"/>
     </row>
-    <row r="443" s="2" customFormat="1" spans="1:2">
-      <c r="A443" s="7" t="s">
+    <row r="443" s="2" customFormat="1" spans="1:1">
+      <c r="A443" s="7"/>
+    </row>
+    <row r="444" s="2" customFormat="1" spans="1:2">
+      <c r="A444" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B444" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="444" s="2" customFormat="1" spans="1:1">
-      <c r="A444" s="7"/>
     </row>
     <row r="445" s="2" customFormat="1" spans="1:1">
       <c r="A445" s="7"/>
+    </row>
+    <row r="446" s="2" customFormat="1" spans="1:1">
+      <c r="A446" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/JVM.xlsx
+++ b/JVM.xlsx
@@ -2912,8 +2912,8 @@
   <sheetPr/>
   <dimension ref="A1:N446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
